--- a/biology/Médecine/Adolph_Occo/Adolph_Occo.xlsx
+++ b/biology/Médecine/Adolph_Occo/Adolph_Occo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolph Occo, aussi dit Adolph Occo III pour le distinguer de son père, né le 17 octobre 1524 à Augsbourg – décédé le 28 septembre 1606 dans cette ville, est un numismate, médecin et épigraphiste allemand, ami d’André Vésale et de Conrad Gessner.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d’une famille de médecins, il étudie la médecine à Tübingen et à Padoue, puis devient docteur en médecine à Ferrare en 1549. Il revient ensuite dans sa patrie et succède à son père. En 1573, il est anobli par l’empereur Maximilien II de Habsbourg. De 1582 jusqu’à sa mort à Augsbourg, il préside le collège médical. Il consacre sa vie aux études érudites.
 </t>
@@ -542,11 +556,13 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1573 pharmacopée de sa cité, rééditée plusieurs fois [1].
-1579 à Anvers[2] Impp. romanorum numismata a Pompeio Magno ad Heraclium (Monnaies des imperators romains de Pompée à Héraclius, ouvrage numismatique, réédité à Augsbourg en 1601 [3]. Troisième édition publiée après la mort de son auteur[4]. C’est le plus connu de ses ouvrages. Occo l’a dédié au duc de Bavière, Albert V, qui lui avait facilité son travail : il avait trouvé aussi d’immenses ressources dans le cabinet des Fugger, et il possédait lui-même une collection de médailles formée avec beaucoup de soin et de recherches. Francesco Mezzabarba Birago a donné une édition augmentée du recueil d’Occo, Milan, 1683, in-fol. Elle a été reproduite avec des améliorations par Filippo Argelati, 1730, in-fol[réf. nécessaire].
-1592 et de nouveau en 1596 à Heidelberg : recueil d’inscriptions antiques relevées en Espagne [5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1573 pharmacopée de sa cité, rééditée plusieurs fois .
+1579 à Anvers Impp. romanorum numismata a Pompeio Magno ad Heraclium (Monnaies des imperators romains de Pompée à Héraclius, ouvrage numismatique, réédité à Augsbourg en 1601 . Troisième édition publiée après la mort de son auteur. C’est le plus connu de ses ouvrages. Occo l’a dédié au duc de Bavière, Albert V, qui lui avait facilité son travail : il avait trouvé aussi d’immenses ressources dans le cabinet des Fugger, et il possédait lui-même une collection de médailles formée avec beaucoup de soin et de recherches. Francesco Mezzabarba Birago a donné une édition augmentée du recueil d’Occo, Milan, 1683, in-fol. Elle a été reproduite avec des améliorations par Filippo Argelati, 1730, in-fol[réf. nécessaire].
+1592 et de nouveau en 1596 à Heidelberg : recueil d’inscriptions antiques relevées en Espagne .</t>
         </is>
       </c>
     </row>
